--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4181738.094855068</v>
+        <v>4179487.276469174</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.58283624</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>36.32522037199661</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>155.886038567534</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>129.0246247964033</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>44.90925090849413</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>64.34226368086765</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>77.72878559814581</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>203.1609600883623</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598869</v>
+        <v>358.5239983301266</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>139.6528551206852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.7498680634316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>18.26879610203962</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1585,7 +1585,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>251.4434670897031</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292597</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>35.1956961965012</v>
       </c>
       <c r="S16" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881766</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589027</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>120.6353666620236</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>57.76865805628413</v>
       </c>
     </row>
     <row r="20">
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492292</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>203.1897060792147</v>
       </c>
     </row>
     <row r="23">
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>64.1464713091387</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>270.0697021486456</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2570,7 +2570,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>181.1375494785986</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>121.4295444840913</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3004,7 +3004,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>270.0697021486459</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>204.1149264341218</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>151.4356471531007</v>
+        <v>151.4356471531006</v>
       </c>
       <c r="C34" t="n">
-        <v>138.8504880697912</v>
+        <v>47.33797394444977</v>
       </c>
       <c r="D34" t="n">
-        <v>28.70662586403403</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>67.95608738100148</v>
+        <v>67.95608738100142</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.53581964121071</v>
+        <v>60.53581964121067</v>
       </c>
       <c r="S34" t="n">
-        <v>161.3726923026053</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T34" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U34" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V34" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W34" t="n">
         <v>258.1266653077544</v>
@@ -3253,7 +3253,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y34" t="n">
-        <v>190.1883203232582</v>
+        <v>190.1883203232581</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.4356471531007</v>
+        <v>151.4356471531006</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D37" t="n">
-        <v>51.1984320483398</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>117.9335065897436</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3586818854842</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I37" t="n">
-        <v>67.9560873810015</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>60.53581964121074</v>
+        <v>60.53581964121067</v>
       </c>
       <c r="S37" t="n">
-        <v>161.3726923026053</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T37" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U37" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V37" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W37" t="n">
         <v>258.1266653077544</v>
@@ -3490,7 +3490,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y37" t="n">
-        <v>190.1883203232582</v>
+        <v>190.1883203232581</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>151.4356471531006</v>
       </c>
       <c r="C40" t="n">
-        <v>138.8504880697912</v>
+        <v>66.92981955690884</v>
       </c>
       <c r="D40" t="n">
-        <v>63.78359113165089</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3586818854842</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>67.95608738100147</v>
+        <v>67.95608738100142</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3706,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>60.53581964121068</v>
+        <v>60.53581964121067</v>
       </c>
       <c r="S40" t="n">
-        <v>161.3726923026053</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T40" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U40" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V40" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W40" t="n">
         <v>258.1266653077544</v>
@@ -3727,7 +3727,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y40" t="n">
-        <v>190.1883203232582</v>
+        <v>190.1883203232581</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.4356471531007</v>
+        <v>151.4356471531006</v>
       </c>
       <c r="C43" t="n">
-        <v>10.44092420402427</v>
+        <v>9.588951692823063</v>
       </c>
       <c r="D43" t="n">
         <v>120.2191399893757</v>
@@ -3910,13 +3910,13 @@
         <v>117.0247149940946</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>67.95608738100147</v>
+        <v>67.95608738100142</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>60.53581964121067</v>
       </c>
       <c r="S43" t="n">
-        <v>161.3726923026053</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T43" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U43" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V43" t="n">
-        <v>223.7413102949914</v>
+        <v>223.7413102949913</v>
       </c>
       <c r="W43" t="n">
         <v>258.1266653077544</v>
       </c>
       <c r="X43" t="n">
-        <v>197.3133223602005</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>190.1883203232582</v>
+        <v>190.1883203232581</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>151.4356471531007</v>
+        <v>151.4356471531006</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F46" t="n">
-        <v>51.19843204834184</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>137.6294752301916</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3586818854842</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>67.95608738100145</v>
+        <v>67.95608738100142</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,13 +4186,13 @@
         <v>161.3726923026052</v>
       </c>
       <c r="T46" t="n">
-        <v>191.1526162473326</v>
+        <v>191.1526162473325</v>
       </c>
       <c r="U46" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V46" t="n">
-        <v>223.7413102949914</v>
+        <v>153.0416546217092</v>
       </c>
       <c r="W46" t="n">
         <v>258.1266653077544</v>
@@ -4201,7 +4201,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y46" t="n">
-        <v>190.1883203232582</v>
+        <v>190.1883203232581</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1406.118858921978</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1406.118858921978</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1047.853160315228</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>662.0649077169835</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2169.72394915887</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>1796.25819089779</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1406.118858921978</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4422,10 +4422,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>184.2708856551153</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.4036268380756</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1387.069036214947</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C5" t="n">
-        <v>1018.106519274536</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
         <v>221.3323618866839</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2577.128216012486</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2358.493548984548</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2104.73176362264</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1773.668876279069</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1773.668876279069</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1773.668876279069</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1773.668876279069</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4647,16 +4647,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,7 +4817,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1300.338121270757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>484.4236418782192</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>484.4236418782192</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="11">
@@ -5018,40 +5018,40 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>260.9043113423044</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="C13" t="n">
-        <v>260.9043113423044</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D13" t="n">
-        <v>260.9043113423044</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E13" t="n">
         <v>242.4509819463048</v>
@@ -5200,10 +5200,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.670849844206</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892251</v>
@@ -5218,31 +5218,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208124</v>
+        <v>909.9743422936184</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838518</v>
+        <v>620.5571722566579</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858345</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="Y13" t="n">
-        <v>260.9043113423044</v>
+        <v>392.5676213586405</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5276,25 +5276,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1898.858917622688</v>
+        <v>1676.07730320813</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>2209.609207880054</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5358,10 +5358,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="F16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5455,31 +5455,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1920.79225782541</v>
       </c>
       <c r="S16" t="n">
-        <v>1780.962769867859</v>
+        <v>1729.106373652236</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437385</v>
+        <v>1507.339758221762</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1218.236891347406</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>963.5524031415189</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201816</v>
+        <v>674.1352331045583</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221642</v>
+        <v>446.145682206541</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786341</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5501,7 +5501,7 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5516,13 +5516,13 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1898.858917622688</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294613</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N17" t="n">
         <v>2979.169639353395</v>
@@ -5540,10 +5540,10 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
@@ -5558,7 +5558,7 @@
         <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,40 +5592,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>561.5038042865474</v>
+      </c>
+      <c r="C19" t="n">
+        <v>392.5676213586405</v>
+      </c>
+      <c r="D19" t="n">
+        <v>242.4509819463048</v>
+      </c>
+      <c r="E19" t="n">
+        <v>242.4509819463048</v>
+      </c>
+      <c r="F19" t="n">
         <v>95.56103444839442</v>
       </c>
-      <c r="C19" t="n">
+      <c r="G19" t="n">
         <v>95.56103444839442</v>
       </c>
-      <c r="D19" t="n">
+      <c r="H19" t="n">
         <v>95.56103444839442</v>
       </c>
-      <c r="E19" t="n">
-        <v>95.56103444839439</v>
-      </c>
-      <c r="F19" t="n">
-        <v>95.56103444839439</v>
-      </c>
-      <c r="G19" t="n">
-        <v>95.56103444839439</v>
-      </c>
-      <c r="H19" t="n">
-        <v>95.56103444839439</v>
-      </c>
       <c r="I19" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5686,7 +5686,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5707,16 +5707,16 @@
         <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783404</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W19" t="n">
-        <v>619.85598414138</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>561.5038042865474</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,52 +5750,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1898.858917622688</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>414.6138567886371</v>
+      </c>
+      <c r="C22" t="n">
+        <v>245.6776738607302</v>
+      </c>
+      <c r="D22" t="n">
+        <v>95.56103444839445</v>
+      </c>
+      <c r="E22" t="n">
         <v>95.56103444839442</v>
       </c>
-      <c r="C22" t="n">
-        <v>95.56103444839439</v>
-      </c>
-      <c r="D22" t="n">
-        <v>95.56103444839435</v>
-      </c>
-      <c r="E22" t="n">
-        <v>95.56103444839432</v>
-      </c>
       <c r="F22" t="n">
-        <v>95.56103444839428</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839428</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839428</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839428</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953298</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5926,7 +5926,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
         <v>1956.343466104703</v>
@@ -5938,7 +5938,7 @@
         <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
         <v>1163.957642384227</v>
@@ -5947,13 +5947,13 @@
         <v>909.2731541783401</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413792</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X22" t="n">
-        <v>391.8664332433618</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998317</v>
+        <v>414.6138567886372</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5990,22 +5990,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1617.665844847779</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6069,10 +6069,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839437</v>
+        <v>307.2453974100815</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839452</v>
+        <v>307.2453974100815</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839449</v>
+        <v>307.2453974100815</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>307.2453974100815</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>160.3554499121709</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>160.3554499121709</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6145,13 +6145,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6172,25 +6172,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501055</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201817</v>
+        <v>709.6864413838514</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221643</v>
+        <v>709.6864413838514</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786342</v>
+        <v>488.8938622403213</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,22 +6224,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2215.249704195857</v>
+        <v>2383.057343890769</v>
       </c>
       <c r="N26" t="n">
-        <v>2762.028521254639</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O26" t="n">
-        <v>3641.993171584094</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P26" t="n">
         <v>4260.556453353931</v>
@@ -6306,10 +6306,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>558.6274977408368</v>
+      </c>
+      <c r="C28" t="n">
+        <v>389.6913148129299</v>
+      </c>
+      <c r="D28" t="n">
+        <v>389.6913148129298</v>
+      </c>
+      <c r="E28" t="n">
+        <v>241.7782212305367</v>
+      </c>
+      <c r="F28" t="n">
+        <v>241.7782212305367</v>
+      </c>
+      <c r="G28" t="n">
+        <v>241.7782212305367</v>
+      </c>
+      <c r="H28" t="n">
         <v>95.56103444839442</v>
       </c>
-      <c r="C28" t="n">
+      <c r="I28" t="n">
         <v>95.56103444839442</v>
       </c>
-      <c r="D28" t="n">
-        <v>95.56103444839439</v>
-      </c>
-      <c r="E28" t="n">
-        <v>95.56103444839437</v>
-      </c>
-      <c r="F28" t="n">
-        <v>95.56103444839428</v>
-      </c>
-      <c r="G28" t="n">
-        <v>95.56103444839428</v>
-      </c>
-      <c r="H28" t="n">
-        <v>95.56103444839428</v>
-      </c>
-      <c r="I28" t="n">
-        <v>95.56103444839428</v>
-      </c>
       <c r="J28" t="n">
-        <v>140.6836668953298</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
         <v>344.6708498442062</v>
@@ -6409,25 +6409,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>681.283603280323</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>558.6274977408368</v>
       </c>
     </row>
     <row r="29">
@@ -6443,19 +6443,19 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6464,19 +6464,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>1941.005908766398</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
         <v>4195.497197679678</v>
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6561,7 +6561,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6570,16 +6570,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839455</v>
+        <v>192.8867116300492</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839452</v>
+        <v>192.8867116300492</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839449</v>
+        <v>192.8867116300492</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
         <v>344.6708498442063</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357143</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201818</v>
+        <v>619.8559841413792</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221645</v>
+        <v>413.6792907735794</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786343</v>
+        <v>192.8867116300493</v>
       </c>
     </row>
     <row r="32">
@@ -6701,19 +6701,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>1002.806306216376</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L32" t="n">
-        <v>1453.840519464784</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294613</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353395</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3678.485594538922</v>
       </c>
       <c r="P32" t="n">
         <v>4195.497197679678</v>
@@ -6780,7 +6780,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320243</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>472.4728289383119</v>
+        <v>472.4728289383127</v>
       </c>
       <c r="C34" t="n">
-        <v>332.2198106859976</v>
+        <v>424.6566936408881</v>
       </c>
       <c r="D34" t="n">
-        <v>303.223218904145</v>
+        <v>303.2232189041449</v>
       </c>
       <c r="E34" t="n">
-        <v>303.223218904145</v>
+        <v>303.2232189041449</v>
       </c>
       <c r="F34" t="n">
-        <v>303.223218904145</v>
+        <v>303.2232189041449</v>
       </c>
       <c r="G34" t="n">
         <v>164.2035469544565</v>
@@ -6856,10 +6856,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>168.7960365938783</v>
+        <v>168.7960365938782</v>
       </c>
       <c r="K34" t="n">
-        <v>400.895589241303</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L34" t="n">
         <v>745.5677573883473</v>
@@ -6868,7 +6868,7 @@
         <v>1117.837172686445</v>
       </c>
       <c r="N34" t="n">
-        <v>1487.357919090857</v>
+        <v>1487.357919090858</v>
       </c>
       <c r="O34" t="n">
         <v>1814.799887709819</v>
@@ -6880,10 +6880,10 @@
         <v>2181.24242369309</v>
       </c>
       <c r="R34" t="n">
-        <v>2120.09513112621</v>
+        <v>2120.095131126211</v>
       </c>
       <c r="S34" t="n">
-        <v>1957.092411628629</v>
+        <v>1957.09241162863</v>
       </c>
       <c r="T34" t="n">
         <v>1764.008960873748</v>
@@ -6892,16 +6892,16 @@
         <v>1503.589258674984</v>
       </c>
       <c r="V34" t="n">
-        <v>1277.587935144689</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W34" t="n">
-        <v>1016.853929783321</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="X34" t="n">
-        <v>817.5475435608963</v>
+        <v>817.5475435608973</v>
       </c>
       <c r="Y34" t="n">
-        <v>625.4381290929589</v>
+        <v>625.4381290929598</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6923,40 +6923,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>416.1091927888641</v>
+        <v>318.2383484401506</v>
       </c>
       <c r="K35" t="n">
-        <v>1070.832524924163</v>
+        <v>972.9616805754501</v>
       </c>
       <c r="L35" t="n">
-        <v>1521.866738172572</v>
+        <v>1837.480496228805</v>
       </c>
       <c r="M35" t="n">
-        <v>2055.398642844496</v>
+        <v>2816.030799058633</v>
       </c>
       <c r="N35" t="n">
-        <v>2602.177459903278</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973176</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161906</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549394</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494839</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763689</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7014,52 +7014,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193586</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426848</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902951</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.10246054955</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142066</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635546</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313401</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447817</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216074</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487872</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517386</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>472.4728289383106</v>
+        <v>472.4728289383124</v>
       </c>
       <c r="C37" t="n">
-        <v>472.4728289383106</v>
+        <v>332.2198106859982</v>
       </c>
       <c r="D37" t="n">
-        <v>420.7572410106947</v>
+        <v>332.2198106859982</v>
       </c>
       <c r="E37" t="n">
-        <v>420.7572410106947</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="F37" t="n">
-        <v>420.7572410106947</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="G37" t="n">
-        <v>281.7375690610062</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="H37" t="n">
-        <v>164.2035469544566</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K37" t="n">
-        <v>400.8955892413028</v>
+        <v>400.895589241303</v>
       </c>
       <c r="L37" t="n">
-        <v>745.5677573883471</v>
+        <v>745.5677573883474</v>
       </c>
       <c r="M37" t="n">
-        <v>1117.837172686444</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N37" t="n">
-        <v>1487.357919090857</v>
+        <v>1487.357919090858</v>
       </c>
       <c r="O37" t="n">
         <v>1814.799887709819</v>
       </c>
       <c r="P37" t="n">
-        <v>2075.519757842026</v>
+        <v>2075.519757842027</v>
       </c>
       <c r="Q37" t="n">
-        <v>2181.242423693089</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R37" t="n">
-        <v>2120.09513112621</v>
+        <v>2120.095131126211</v>
       </c>
       <c r="S37" t="n">
         <v>1957.092411628629</v>
       </c>
       <c r="T37" t="n">
-        <v>1764.008960873747</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U37" t="n">
-        <v>1503.589258674983</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V37" t="n">
-        <v>1277.587935144689</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W37" t="n">
-        <v>1016.85392978332</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="X37" t="n">
-        <v>817.5475435608953</v>
+        <v>817.547543560897</v>
       </c>
       <c r="Y37" t="n">
-        <v>625.4381290929578</v>
+        <v>625.4381290929595</v>
       </c>
     </row>
     <row r="38">
@@ -7154,43 +7154,43 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7272,7 +7272,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7281,7 +7281,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
         <v>2043.809373447819</v>
@@ -7290,7 +7290,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
         <v>1346.568408282342</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>625.4381290929596</v>
+        <v>472.4728289383121</v>
       </c>
       <c r="C40" t="n">
-        <v>485.1851108406451</v>
+        <v>404.8669505980002</v>
       </c>
       <c r="D40" t="n">
-        <v>420.7572410106947</v>
+        <v>283.4334758612571</v>
       </c>
       <c r="E40" t="n">
-        <v>420.7572410106947</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="F40" t="n">
-        <v>420.7572410106947</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="G40" t="n">
-        <v>281.7375690610062</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="H40" t="n">
         <v>164.2035469544565</v>
@@ -7330,13 +7330,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K40" t="n">
         <v>400.8955892413029</v>
       </c>
       <c r="L40" t="n">
-        <v>745.5677573883474</v>
+        <v>745.5677573883473</v>
       </c>
       <c r="M40" t="n">
         <v>1117.837172686445</v>
@@ -7372,10 +7372,10 @@
         <v>1016.853929783322</v>
       </c>
       <c r="X40" t="n">
-        <v>817.5475435608971</v>
+        <v>817.5475435608968</v>
       </c>
       <c r="Y40" t="n">
-        <v>625.4381290929596</v>
+        <v>625.4381290929592</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>379.616769834034</v>
       </c>
       <c r="K41" t="n">
-        <v>818.2062848686776</v>
+        <v>1034.340101969334</v>
       </c>
       <c r="L41" t="n">
-        <v>1682.725100522032</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M41" t="n">
-        <v>2216.257005193957</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7491,7 +7491,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
         <v>794.2006632320243</v>
@@ -7506,22 +7506,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>533.620121505191</v>
+        <v>671.7792151607367</v>
       </c>
       <c r="C43" t="n">
-        <v>523.073733420318</v>
+        <v>662.0934053700064</v>
       </c>
       <c r="D43" t="n">
-        <v>401.6402586835749</v>
+        <v>540.6599306332632</v>
       </c>
       <c r="E43" t="n">
-        <v>282.4103297767743</v>
+        <v>421.4300017264627</v>
       </c>
       <c r="F43" t="n">
-        <v>164.2035469544565</v>
+        <v>303.2232189041449</v>
       </c>
       <c r="G43" t="n">
         <v>164.2035469544565</v>
@@ -7567,19 +7567,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K43" t="n">
         <v>400.8955892413029</v>
       </c>
       <c r="L43" t="n">
-        <v>745.5677573883472</v>
+        <v>745.5677573883473</v>
       </c>
       <c r="M43" t="n">
         <v>1117.837172686445</v>
       </c>
       <c r="N43" t="n">
-        <v>1487.357919090857</v>
+        <v>1487.357919090858</v>
       </c>
       <c r="O43" t="n">
         <v>1814.799887709819</v>
@@ -7591,28 +7591,28 @@
         <v>2181.24242369309</v>
       </c>
       <c r="R43" t="n">
-        <v>2181.24242369309</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S43" t="n">
-        <v>2018.239704195508</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T43" t="n">
-        <v>1825.156253440627</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U43" t="n">
-        <v>1564.736551241863</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V43" t="n">
-        <v>1338.735227711569</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W43" t="n">
-        <v>1078.001222350201</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X43" t="n">
-        <v>878.6948361277758</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="Y43" t="n">
-        <v>686.5854216598382</v>
+        <v>824.7445153153839</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089256</v>
@@ -7646,28 +7646,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074201</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>818.206284868676</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1682.725100522031</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M44" t="n">
-        <v>2216.257005193956</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N44" t="n">
-        <v>3196.009277420602</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7679,19 +7679,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7701,46 +7701,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902952</v>
@@ -7749,10 +7749,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>472.4728289383127</v>
+        <v>543.8866225476886</v>
       </c>
       <c r="C46" t="n">
-        <v>472.4728289383127</v>
+        <v>543.8866225476886</v>
       </c>
       <c r="D46" t="n">
-        <v>472.4728289383127</v>
+        <v>422.4531478109454</v>
       </c>
       <c r="E46" t="n">
-        <v>472.4728289383127</v>
+        <v>303.2232189041449</v>
       </c>
       <c r="F46" t="n">
-        <v>420.7572410106947</v>
+        <v>303.2232189041449</v>
       </c>
       <c r="G46" t="n">
-        <v>281.7375690610062</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="H46" t="n">
         <v>164.2035469544565</v>
@@ -7807,7 +7807,7 @@
         <v>168.7960365938783</v>
       </c>
       <c r="K46" t="n">
-        <v>400.895589241303</v>
+        <v>400.8955892413031</v>
       </c>
       <c r="L46" t="n">
         <v>745.5677573883476</v>
@@ -7822,34 +7822,34 @@
         <v>1814.79988770982</v>
       </c>
       <c r="P46" t="n">
-        <v>2075.519757842028</v>
+        <v>2075.519757842027</v>
       </c>
       <c r="Q46" t="n">
-        <v>2181.242423693091</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R46" t="n">
         <v>2120.095131126211</v>
       </c>
       <c r="S46" t="n">
-        <v>1957.09241162863</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T46" t="n">
         <v>1764.008960873748</v>
       </c>
       <c r="U46" t="n">
-        <v>1503.589258674985</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V46" t="n">
-        <v>1277.58793514469</v>
+        <v>1349.001728754066</v>
       </c>
       <c r="W46" t="n">
-        <v>1016.853929783322</v>
+        <v>1088.267723392698</v>
       </c>
       <c r="X46" t="n">
-        <v>817.5475435608976</v>
+        <v>888.9613371702732</v>
       </c>
       <c r="Y46" t="n">
-        <v>625.4381290929598</v>
+        <v>696.8519227023357</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>96.13798426930725</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>344.7025836476838</v>
+        <v>288.7672650676782</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9164,16 +9164,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>219.3344627260162</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>358.2849913921049</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,25 +9638,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>384.814589375506</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,25 +9872,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>370.451600472953</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>226.0494095077362</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10112,22 +10112,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>172.4995987156013</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10349,10 +10349,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>219.3344627260164</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>123.471956347048</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>132.9990175570146</v>
+        <v>34.13957882094016</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476831</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>67.53663776704269</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>96.13798426930725</v>
       </c>
       <c r="K41" t="n">
-        <v>201.9664098701124</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11069,19 +11069,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,16 +11297,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>201.9664098701103</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>329.4296048068269</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11315,10 +11315,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>128.1651665445295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.6941762341249103</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>53.73645647354613</v>
       </c>
       <c r="S16" t="n">
-        <v>16.14213605696621</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>105.0742887270136</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>160.8159952958107</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270144</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>15.39494727288006</v>
       </c>
     </row>
     <row r="23">
@@ -24373,13 +24373,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>80.60854360518211</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983812</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004736</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>16.14213605696733</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>166.0258082590283</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>105.0742887270143</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>97.15510886800352</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004736</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>16.14213605696707</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>21.59472895491539</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>91.5125141253414</v>
       </c>
       <c r="D34" t="n">
-        <v>91.51251412534171</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>118.0376296177325</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3586818854842</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>69.02070794103594</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E37" t="n">
-        <v>118.0376296177325</v>
+        <v>0.1041230279889135</v>
       </c>
       <c r="F37" t="n">
         <v>117.0247149940946</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>67.95608738100142</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>151.4356471531007</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>71.92066851288233</v>
       </c>
       <c r="D40" t="n">
-        <v>56.43554885772483</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>117.0247149940946</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>128.4095638657669</v>
+        <v>129.2615363769681</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3586818854842</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.53581964121071</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>197.3133223602005</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>138.8504880697912</v>
       </c>
       <c r="D46" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>65.82628294575278</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>70.69965567328218</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>625164.1020565147</v>
+        <v>625164.1020565148</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
+        <v>794163.5737739662</v>
+      </c>
+      <c r="F2" t="n">
         <v>794163.5737739658</v>
       </c>
-      <c r="F2" t="n">
-        <v>794163.5737739657</v>
-      </c>
       <c r="G2" t="n">
-        <v>794163.5737739662</v>
+        <v>794163.5737739658</v>
       </c>
       <c r="H2" t="n">
-        <v>794163.5737739659</v>
+        <v>794163.5737739658</v>
       </c>
       <c r="I2" t="n">
         <v>794163.5737739659</v>
@@ -26341,19 +26341,19 @@
         <v>794163.5737739662</v>
       </c>
       <c r="L2" t="n">
-        <v>810411.3648893397</v>
+        <v>810411.3648893399</v>
       </c>
       <c r="M2" t="n">
-        <v>810411.3648893394</v>
+        <v>810411.3648893395</v>
       </c>
       <c r="N2" t="n">
-        <v>810411.36488934</v>
+        <v>810411.3648893393</v>
       </c>
       <c r="O2" t="n">
-        <v>810411.3648893397</v>
+        <v>810411.3648893398</v>
       </c>
       <c r="P2" t="n">
-        <v>810411.36488934</v>
+        <v>810411.3648893398</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22717.0664230693</v>
+        <v>22717.06642306933</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389444</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
-        <v>4.708776941697579e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>18148.49231918992</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="J4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="J4" t="n">
-        <v>18148.49231918993</v>
-      </c>
       <c r="K4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="L4" t="n">
         <v>27492.3010319063</v>
       </c>
       <c r="M4" t="n">
-        <v>27492.3010319063</v>
+        <v>27492.30103190629</v>
       </c>
       <c r="N4" t="n">
         <v>27492.30103190629</v>
       </c>
       <c r="O4" t="n">
-        <v>27492.30103190627</v>
+        <v>27492.30103190631</v>
       </c>
       <c r="P4" t="n">
-        <v>27492.30103190627</v>
+        <v>27492.3010319063</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
@@ -26503,13 +26503,13 @@
         <v>98770.76957511491</v>
       </c>
       <c r="N5" t="n">
-        <v>98770.76957511493</v>
+        <v>98770.76957511491</v>
       </c>
       <c r="O5" t="n">
         <v>98770.76957511491</v>
       </c>
       <c r="P5" t="n">
-        <v>98770.76957511493</v>
+        <v>98770.76957511491</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-35133.87427079861</v>
+        <v>-35133.8742707987</v>
       </c>
       <c r="C6" t="n">
-        <v>554834.0049437458</v>
+        <v>554834.0049437456</v>
       </c>
       <c r="D6" t="n">
         <v>554834.0049437457</v>
       </c>
       <c r="E6" t="n">
-        <v>-47745.85079234432</v>
+        <v>-47813.04628256977</v>
       </c>
       <c r="F6" t="n">
-        <v>679631.5632010621</v>
+        <v>679564.3677108365</v>
       </c>
       <c r="G6" t="n">
-        <v>679631.5632010626</v>
+        <v>679564.3677108365</v>
       </c>
       <c r="H6" t="n">
-        <v>679631.5632010624</v>
+        <v>679564.3677108365</v>
       </c>
       <c r="I6" t="n">
-        <v>679631.5632010624</v>
+        <v>679564.3677108366</v>
       </c>
       <c r="J6" t="n">
-        <v>503208.3440084695</v>
+        <v>503141.1485182438</v>
       </c>
       <c r="K6" t="n">
-        <v>679631.5632010626</v>
+        <v>679564.3677108368</v>
       </c>
       <c r="L6" t="n">
-        <v>661431.2278592491</v>
+        <v>661404.651846812</v>
       </c>
       <c r="M6" t="n">
-        <v>554505.9794433737</v>
+        <v>554479.4034309363</v>
       </c>
       <c r="N6" t="n">
-        <v>684148.2942823183</v>
+        <v>684121.7182698807</v>
       </c>
       <c r="O6" t="n">
-        <v>684148.2942823186</v>
+        <v>684121.7182698812</v>
       </c>
       <c r="P6" t="n">
-        <v>684148.2942823184</v>
+        <v>684121.7182698812</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M2" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N2" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O2" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P2" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26771,13 +26771,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,13 +26993,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>370.5508253697148</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>23.9459416144033</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>157.4983735401877</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>320.3636408625134</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>110.0734491281039</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>68.70517704842337</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>83.12091415361539</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858218</v>
+        <v>11.20710234834246</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>146.6290191212926</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.8347852886632</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28612,13 +28612,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-7.394985773160066e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-7.71678812803845e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-4.050093593832571e-13</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="K34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="L34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="R34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="S34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="V34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.077696578835832e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="K37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="L37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="R37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="S37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="V37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="K40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="L40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="R40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="S40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="V40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="K43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="L43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="R43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="S43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="V43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="D46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="E46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="F46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="G46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="H46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="I46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="J46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="K46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="L46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="M46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="N46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="O46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="P46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="R46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="S46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="T46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="U46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="V46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39633302883662</v>
+        <v>28.39633302883666</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32093,7 +32093,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32561,13 +32561,13 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
@@ -32789,7 +32789,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32804,7 +32804,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33035,7 +33035,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33497,13 +33497,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33892,40 +33892,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34044,43 +34044,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837912</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35422,7 +35422,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>604.1909851575264</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>800.2926980400159</v>
+        <v>744.3573794600104</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
         <v>508.0530008882191</v>
@@ -35665,7 +35665,7 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35741,7 +35741,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35884,16 +35884,16 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>771.6362981389277</v>
       </c>
       <c r="O17" t="n">
         <v>508.0530008882191</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>910.5868268050164</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,13 +36209,13 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443195</v>
@@ -36291,7 +36291,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
@@ -36358,25 +36358,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>840.4047037678382</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36437,7 +36437,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36452,7 +36452,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36516,7 +36516,7 @@
         <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,7 +36528,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
@@ -36592,25 +36592,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>909.3727163031798</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>624.8113957271081</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36683,7 +36683,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36771,7 +36771,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,22 +36832,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>711.4207145458281</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443195</v>
@@ -37008,7 +37008,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,10 +37069,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>556.5257492814169</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37084,7 +37084,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>522.2339425664198</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.97474964190285</v>
+        <v>73.97474964190289</v>
       </c>
       <c r="K34" t="n">
         <v>234.4439925731562</v>
@@ -37236,7 +37236,7 @@
         <v>376.0297124223205</v>
       </c>
       <c r="N34" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963768</v>
       </c>
       <c r="O34" t="n">
         <v>330.7494632514764</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>323.7860185257269</v>
+        <v>224.9265797896527</v>
       </c>
       <c r="K35" t="n">
-        <v>661.336699126565</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923318</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302264</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509642</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.109295463624</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152071</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.97474964190282</v>
+        <v>73.97474964190289</v>
       </c>
       <c r="K37" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L37" t="n">
-        <v>348.1537051990346</v>
+        <v>348.1537051990347</v>
       </c>
       <c r="M37" t="n">
-        <v>376.0297124223204</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N37" t="n">
-        <v>373.2532791963766</v>
+        <v>373.2532791963768</v>
       </c>
       <c r="O37" t="n">
-        <v>330.7494632514763</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P37" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q37" t="n">
-        <v>106.7905715667302</v>
+        <v>106.7905715667303</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359025</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908547</v>
+        <v>466.2986239864146</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859626</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.97474964190287</v>
+        <v>73.97474964190289</v>
       </c>
       <c r="K40" t="n">
-        <v>234.4439925731563</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L40" t="n">
         <v>348.1537051990348</v>
@@ -37713,7 +37713,7 @@
         <v>373.2532791963768</v>
       </c>
       <c r="O40" t="n">
-        <v>330.7494632514765</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P40" t="n">
         <v>263.3534041739471</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>286.9249852380198</v>
       </c>
       <c r="K41" t="n">
-        <v>539.1576964255129</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
         <v>873.2513289427826</v>
@@ -37789,19 +37789,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.97474964190283</v>
+        <v>73.97474964190289</v>
       </c>
       <c r="K43" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L43" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990348</v>
       </c>
       <c r="M43" t="n">
         <v>376.0297124223205</v>
       </c>
       <c r="N43" t="n">
-        <v>373.2532791963767</v>
+        <v>373.2532791963768</v>
       </c>
       <c r="O43" t="n">
         <v>330.7494632514764</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>539.1576964255111</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427828</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248959</v>
+        <v>881.7314402197384</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509648</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037197</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222489</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.306104600458</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.9747496419029</v>
+        <v>73.97474964190289</v>
       </c>
       <c r="K46" t="n">
-        <v>234.4439925731563</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L46" t="n">
         <v>348.1537051990348</v>
       </c>
       <c r="M46" t="n">
-        <v>376.0297124223206</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N46" t="n">
         <v>373.2532791963768</v>
       </c>
       <c r="O46" t="n">
-        <v>330.7494632514765</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P46" t="n">
         <v>263.3534041739471</v>
